--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="114">
   <si>
     <t>Courses</t>
   </si>
@@ -322,6 +322,66 @@
   </si>
   <si>
     <t>Korean (12)</t>
+  </si>
+  <si>
+    <t>Beginner(875)</t>
+  </si>
+  <si>
+    <t>Intermediate(770)</t>
+  </si>
+  <si>
+    <t>English (1,626)</t>
+  </si>
+  <si>
+    <t>Spanish (1,063)</t>
+  </si>
+  <si>
+    <t>Arabic (975)</t>
+  </si>
+  <si>
+    <t>French (959)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (950)</t>
+  </si>
+  <si>
+    <t>German (939)</t>
+  </si>
+  <si>
+    <t>Indonesian (938)</t>
+  </si>
+  <si>
+    <t>Greek (934)</t>
+  </si>
+  <si>
+    <t>Thai (934)</t>
+  </si>
+  <si>
+    <t>Hungarian (662)</t>
+  </si>
+  <si>
+    <t>Global Health at the Human-Animal-Ecosystem Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 - 3 Months</t>
+  </si>
+  <si>
+    <t>Beginner(45)</t>
+  </si>
+  <si>
+    <t>Intermediate(50)</t>
+  </si>
+  <si>
+    <t>Advanced(5)</t>
+  </si>
+  <si>
+    <t>Mixed(8)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Web Design for Everybody: Basics of Web Development &amp; Coding</t>
   </si>
 </sst>
 </file>
@@ -716,10 +776,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -727,10 +787,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>

--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="114">
   <si>
     <t>Courses</t>
   </si>

--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="174">
   <si>
     <t>Courses</t>
   </si>
@@ -382,6 +382,186 @@
   </si>
   <si>
     <t>Web Design for Everybody: Basics of Web Development &amp; Coding</t>
+  </si>
+  <si>
+    <t>Beginner (882)</t>
+  </si>
+  <si>
+    <t>Intermediate (776)</t>
+  </si>
+  <si>
+    <t>Advanced (80)</t>
+  </si>
+  <si>
+    <t>Mixed (148)</t>
+  </si>
+  <si>
+    <t>English (1,639)</t>
+  </si>
+  <si>
+    <t>Spanish (1,099)</t>
+  </si>
+  <si>
+    <t>Arabic (1,010)</t>
+  </si>
+  <si>
+    <t>French (995)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (988)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (986)</t>
+  </si>
+  <si>
+    <t>German (975)</t>
+  </si>
+  <si>
+    <t>Indonesian (974)</t>
+  </si>
+  <si>
+    <t>Hindi (970)</t>
+  </si>
+  <si>
+    <t>Italian (969)</t>
+  </si>
+  <si>
+    <t>Swedish (968)</t>
+  </si>
+  <si>
+    <t>Dutch (967)</t>
+  </si>
+  <si>
+    <t>Greek (967)</t>
+  </si>
+  <si>
+    <t>Polish (967)</t>
+  </si>
+  <si>
+    <t>Thai (967)</t>
+  </si>
+  <si>
+    <t>Turkish (967)</t>
+  </si>
+  <si>
+    <t>Ukrainian (967)</t>
+  </si>
+  <si>
+    <t>Russian (944)</t>
+  </si>
+  <si>
+    <t>Kazakh (893)</t>
+  </si>
+  <si>
+    <t>Hungarian (696)</t>
+  </si>
+  <si>
+    <t>Japanese (89)</t>
+  </si>
+  <si>
+    <t>Korean (87)</t>
+  </si>
+  <si>
+    <t>Beginner (883)</t>
+  </si>
+  <si>
+    <t>Intermediate (777)</t>
+  </si>
+  <si>
+    <t>Mixed (147)</t>
+  </si>
+  <si>
+    <t>English (1,640)</t>
+  </si>
+  <si>
+    <t>Spanish (1,098)</t>
+  </si>
+  <si>
+    <t>Arabic (1,009)</t>
+  </si>
+  <si>
+    <t>French (994)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (990)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (985)</t>
+  </si>
+  <si>
+    <t>German (974)</t>
+  </si>
+  <si>
+    <t>Indonesian (973)</t>
+  </si>
+  <si>
+    <t>Hindi (969)</t>
+  </si>
+  <si>
+    <t>Italian (968)</t>
+  </si>
+  <si>
+    <t>Swedish (967)</t>
+  </si>
+  <si>
+    <t>Dutch (966)</t>
+  </si>
+  <si>
+    <t>Greek (966)</t>
+  </si>
+  <si>
+    <t>Polish (966)</t>
+  </si>
+  <si>
+    <t>Thai (966)</t>
+  </si>
+  <si>
+    <t>Turkish (966)</t>
+  </si>
+  <si>
+    <t>Ukrainian (966)</t>
+  </si>
+  <si>
+    <t>Russian (943)</t>
+  </si>
+  <si>
+    <t>Kazakh (892)</t>
+  </si>
+  <si>
+    <t>Hungarian (695)</t>
+  </si>
+  <si>
+    <t>Beginner (884)</t>
+  </si>
+  <si>
+    <t>Intermediate (779)</t>
+  </si>
+  <si>
+    <t>English (1,643)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (991)</t>
+  </si>
+  <si>
+    <t>Japanese (90)</t>
+  </si>
+  <si>
+    <t>Korean (88)</t>
+  </si>
+  <si>
+    <t>JavaScript for Beginners</t>
+  </si>
+  <si>
+    <t>Data Mining Foundations and Practice</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Developing Applications on AWS</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
 </sst>
 </file>
@@ -787,13 +967,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -824,22 +1004,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -867,122 +1047,122 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
